--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\eline\magnum opus\Magnum-IaC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E4FAF5-F406-4302-A154-CA562843A8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E14E69-CE7C-4008-8ACC-5FD9D9D16E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Wat? </t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>final readme schrijven</t>
+  </si>
+  <si>
+    <t>debuggen</t>
   </si>
 </sst>
 </file>
@@ -398,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -479,8 +482,8 @@
         <v>7</v>
       </c>
       <c r="G6">
-        <f>C2+C3+C4+C5+C6+C7</f>
-        <v>690</v>
+        <f>C2+C3+C4+C5+C6+C7+C8</f>
+        <v>810</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -498,7 +501,18 @@
       </c>
       <c r="G7">
         <f>G6/60</f>
-        <v>11.5</v>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45437</v>
+      </c>
+      <c r="C8">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\eline\magnum opus\Magnum-IaC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E14E69-CE7C-4008-8ACC-5FD9D9D16E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A775DB-976E-46C8-A57F-E37220321D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">Wat? </t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>debuggen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nog eens debuggen </t>
+  </si>
+  <si>
+    <t>semaphore  debuggen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">playbook testen --&gt; resultaat </t>
   </si>
 </sst>
 </file>
@@ -115,12 +124,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -401,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -482,8 +492,8 @@
         <v>7</v>
       </c>
       <c r="G6">
-        <f>C2+C3+C4+C5+C6+C7+C8</f>
-        <v>810</v>
+        <f>C2+C3+C4+C5+C6+C7+C8+C10+C11+C12+C13+C14+C9</f>
+        <v>980</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -499,9 +509,9 @@
       <c r="F7" t="s">
         <v>9</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <f>G6/60</f>
-        <v>13.5</v>
+        <v>16.333333333333332</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -513,6 +523,39 @@
       </c>
       <c r="C8">
         <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45437</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45439</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45440</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\eline\magnum opus\Magnum-IaC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A775DB-976E-46C8-A57F-E37220321D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13D21FF-906C-48DE-B2D8-91C131327216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">Wat? </t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t xml:space="preserve">playbook testen --&gt; resultaat </t>
+  </si>
+  <si>
+    <t>alles overlopen</t>
   </si>
 </sst>
 </file>
@@ -411,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -493,7 +496,7 @@
       </c>
       <c r="G6">
         <f>C2+C3+C4+C5+C6+C7+C8+C10+C11+C12+C13+C14+C9</f>
-        <v>980</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -511,7 +514,7 @@
       </c>
       <c r="G7" s="3">
         <f>G6/60</f>
-        <v>16.333333333333332</v>
+        <v>17.833333333333332</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -556,6 +559,17 @@
       </c>
       <c r="C11">
         <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45445</v>
+      </c>
+      <c r="C12">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
